--- a/references/alerts.xlsx
+++ b/references/alerts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\AVDAlerts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\AVDAlerts\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C4DCA1-CF4C-405B-A646-EB3EF5561E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF020EE-0A87-428A-8F75-F3156A3122B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15440" yWindow="770" windowWidth="24220" windowHeight="15360" xr2:uid="{C2F502F6-848F-43F0-B650-A7D7540057DA}"/>
+    <workbookView xWindow="-28920" yWindow="8085" windowWidth="29040" windowHeight="15720" xr2:uid="{C2F502F6-848F-43F0-B650-A7D7540057DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,106 +35,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>VMs</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Networking</t>
-  </si>
-  <si>
-    <t>Threshold</t>
-  </si>
-  <si>
-    <t>Host Pool Capacity</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>Disk</t>
-  </si>
-  <si>
-    <t>Idle Sessions</t>
-  </si>
-  <si>
-    <t>Disconnected Sessions</t>
-  </si>
-  <si>
-    <t>Drain Mode On</t>
-  </si>
-  <si>
-    <t>Not Available (during business hours)</t>
-  </si>
-  <si>
-    <t>Profile Storage</t>
-  </si>
-  <si>
-    <t>Roundtrip Times (large number are high)</t>
-  </si>
-  <si>
-    <t>VM Status check failed (Host info in AVD)</t>
-  </si>
-  <si>
-    <t>after 24 hrs</t>
-  </si>
-  <si>
-    <t>200 ms</t>
-  </si>
-  <si>
-    <t>Time to Connect</t>
-  </si>
-  <si>
-    <t>60 sec (N% users)</t>
-  </si>
-  <si>
-    <t>GPU</t>
-  </si>
-  <si>
-    <t>FSLogix Errors</t>
-  </si>
-  <si>
-    <t>N in 5 min</t>
-  </si>
-  <si>
-    <t>File Share Handles</t>
-  </si>
-  <si>
-    <t>Max is 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOPs </t>
-  </si>
-  <si>
-    <t>Is there data for this??</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Used - Capacity</t>
-  </si>
-  <si>
-    <t>Fire if 2 or more versions after 7 days</t>
-  </si>
-  <si>
-    <t>Client Version Outdated (Versions being used)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+  <si>
+    <t>HostPools</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Virtual Machines</t>
+  </si>
+  <si>
+    <t>Signal Type</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Log Search</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>AVD-HostPool-Disconnected User over 72 Hours</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>AVD-HostPool-Disconnected User over 24 Hours</t>
+  </si>
+  <si>
+    <t>AVD-HostPool-No Resources Available</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>Metric Alerts</t>
+  </si>
+  <si>
+    <t>AVD-Storage-Over 200ms Latency for Storage Act-{storacctname}</t>
+  </si>
+  <si>
+    <t>AVD-Storage-Possible Throttling Due to High IOPs-{storacctname}</t>
+  </si>
+  <si>
+    <t>AVD-Storage-Azure Files Availability-{storacctname}</t>
+  </si>
+  <si>
+    <t>AVD-VM-Available Memory Less Than 1GB</t>
+  </si>
+  <si>
+    <t>AVD-VM-Available Memory Less Than 2GB</t>
+  </si>
+  <si>
+    <t>AVD-VM-FSLogix Profile Failed (Event Log Indicated Failure)</t>
+  </si>
+  <si>
+    <t>AVD-VM-Health Check Failure</t>
+  </si>
+  <si>
+    <t>AVD-VM-High CPU 95 Percent</t>
+  </si>
+  <si>
+    <t>AVD-VM-High CPU 85 Percent</t>
+  </si>
+  <si>
+    <t>Alert Name</t>
+  </si>
+  <si>
+    <t>AVD-VM-Local Disk Free Space 5%</t>
+  </si>
+  <si>
+    <t>AVD-VM-Local Disk Free Space 10%</t>
+  </si>
+  <si>
+    <t>AVD-HostPool-Capacity 95% *</t>
+  </si>
+  <si>
+    <t>AVD-HostPool-Capacity 85% *</t>
+  </si>
+  <si>
+    <t>AVD-Storage-Low Space on ANF Share-5 Percent Remaining-{volumename} **</t>
+  </si>
+  <si>
+    <t>AVD-Storage-Low Space on ANF Share-15 Percent Remaining-{volumename} **</t>
+  </si>
+  <si>
+    <t>AVD-Storage-Low Space on Azure File Share-5% Remaining **</t>
+  </si>
+  <si>
+    <t>AVD-Storage-Low Space on Azure File Share-15% Remaining **</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Alert derived from Automation Account and Runbook Named "AvdHostPoolLogData"</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Alert derived from Automation Account and Runbook Named "AvdStorageLogData"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,16 +174,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -173,18 +229,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,190 +655,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C723A6-FBD6-4027-B7DA-B722AD0D197E}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34.90625" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>85</v>
+      <c r="E3" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="18">
+        <v>2</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
+      <c r="D23" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/references/alerts.xlsx
+++ b/references/alerts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcore.NORTHAMERICA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\AVDAlerts\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD39416-5E94-4848-8DB3-18E54F903E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693BDB13-328A-4072-AE08-A8087693200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8085" windowWidth="29040" windowHeight="15720" xr2:uid="{1747E9F3-8C51-4656-9796-47111650C799}"/>
   </bookViews>
@@ -164,21 +164,9 @@
     <t>AVD-Storage-Azure Files Availability-below 99%-{storacctname}</t>
   </si>
   <si>
-    <t>Storage for the follow Azure NetApp volume is critically low (MSIX app packages)</t>
-  </si>
-  <si>
     <t>Verify sufficient storage is available and expand when/where needed</t>
   </si>
   <si>
-    <t>Storage for the follow Azure Files share is critically low (User Profiles/FSLogix)</t>
-  </si>
-  <si>
-    <t>Storage for the follow Azure NetApp volume is moderately low (MSIX app packages)</t>
-  </si>
-  <si>
-    <t>Storage for the follow Azure Files share is moderately low (User Profiles/FSLogix)</t>
-  </si>
-  <si>
     <t>verify automation for storage is  expanding and functional</t>
   </si>
   <si>
@@ -255,6 +243,18 @@
   </si>
   <si>
     <t>Confirm user and storage are in the same region and/or investigate.  Identify sources of latency.</t>
+  </si>
+  <si>
+    <t>Storage for the follow Azure NetApp volume is critically low</t>
+  </si>
+  <si>
+    <t>Storage for the follow Azure Files share is critically low</t>
+  </si>
+  <si>
+    <t>Storage for the follow Azure Files share is moderately low</t>
+  </si>
+  <si>
+    <t>Storage for the follow Azure NetApp volume is moderately low</t>
   </si>
 </sst>
 </file>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D25CA4-DB62-4CFC-AE65-12A371E961DC}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -864,7 +864,7 @@
         <v>40</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -885,13 +885,13 @@
         <v>9</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
       <c r="B4" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -903,10 +903,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -927,7 +927,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -948,7 +948,7 @@
         <v>39</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -977,10 +977,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -998,10 +998,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1019,10 +1019,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1061,10 +1061,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1082,10 +1082,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1103,10 +1103,10 @@
         <v>7</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1135,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -1156,10 +1156,10 @@
         <v>7</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1177,10 +1177,10 @@
         <v>7</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -1198,10 +1198,10 @@
         <v>7</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -1219,10 +1219,10 @@
         <v>7</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -1240,10 +1240,10 @@
         <v>7</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1261,10 +1261,10 @@
         <v>13</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1282,10 +1282,10 @@
         <v>13</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">

--- a/references/alerts.xlsx
+++ b/references/alerts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\AVDAlerts\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693BDB13-328A-4072-AE08-A8087693200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF181BE-B566-4499-9088-FF79CF44D409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8085" windowWidth="29040" windowHeight="15720" xr2:uid="{1747E9F3-8C51-4656-9796-47111650C799}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1747E9F3-8C51-4656-9796-47111650C799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
   <si>
     <t>Alert Name</t>
   </si>
@@ -98,9 +98,6 @@
     <t>AVD-Storage-Low Space on Azure File Share-15% Remaining **</t>
   </si>
   <si>
-    <t>AVD-Storage-Over 200ms Latency for Storage Act-{storacctname}</t>
-  </si>
-  <si>
     <t>AVD-Storage-Possible Throttling Due to High IOPs-{storacctname}</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>AVD-VM-Available Memory Less Than 2GB</t>
   </si>
   <si>
-    <t>AVD-VM-FSLogix Profile Failed (Event Log Indicated Failure)</t>
-  </si>
-  <si>
     <t>AVD-VM-Health Check Failure</t>
   </si>
   <si>
@@ -194,12 +188,6 @@
     <t>Investigate session host memory usage per user and/or memory requirements and adjust if/as needed.  Check user active vs. disconnected status.</t>
   </si>
   <si>
-    <t>Check event logs on VM and FSLogix logs</t>
-  </si>
-  <si>
-    <t>User Profiles Service logged an error</t>
-  </si>
-  <si>
     <t>One or more componets for the AVD serivice has failed</t>
   </si>
   <si>
@@ -255,13 +243,76 @@
   </si>
   <si>
     <t>Storage for the follow Azure NetApp volume is moderately low</t>
+  </si>
+  <si>
+    <t>AVD-Storage-Over 100ms Latency for Storage Act-{storacctname}</t>
+  </si>
+  <si>
+    <t>AVD-Storage-Over 50ms Latency for Storage Act-{storacctname}</t>
+  </si>
+  <si>
+    <t>AVD-Storage-Over 100ms Latency Between Client-Storage-{storacctname}</t>
+  </si>
+  <si>
+    <t>AVD-Storage-Over 50ms Latency Between Client-Storage-{storacctname}</t>
+  </si>
+  <si>
+    <t>AVD-VM-FSLogix Profile Failed (Less Than 2% Free Space)</t>
+  </si>
+  <si>
+    <t>User Profiles Service logged an Event ID 34</t>
+  </si>
+  <si>
+    <t>Expand User's Virtual Profile Disk and/or clean up user profile data.</t>
+  </si>
+  <si>
+    <t>AVD-VM-FSLogix Profile Failed (Less Than 5% Free Space)</t>
+  </si>
+  <si>
+    <t>User Profiles Service logged an Event ID 33</t>
+  </si>
+  <si>
+    <t>AVD-VM-FSLogix Profile Failed due to Network Issue</t>
+  </si>
+  <si>
+    <t>User Profiles Service logged an Event ID 43</t>
+  </si>
+  <si>
+    <t>Verify network communications between the storage and AVD VM</t>
+  </si>
+  <si>
+    <t>AVD-VM-FSLogix Profile Disk Failed to Attach</t>
+  </si>
+  <si>
+    <t>User Profiles Service logged an Event ID 52 or 40</t>
+  </si>
+  <si>
+    <t>Investigate error details for reason</t>
+  </si>
+  <si>
+    <t>AVD-VM-FSLogix Profile Service Disabled</t>
+  </si>
+  <si>
+    <t>User Profile Service Disabled</t>
+  </si>
+  <si>
+    <t>Determine why service was disabled and re-enable / start the FSLogix service</t>
+  </si>
+  <si>
+    <t>AVD-VM-FSLogix Profile Disk Compaction Failed</t>
+  </si>
+  <si>
+    <t>See error details for additional information.</t>
+  </si>
+  <si>
+    <t>User Profile Disk marked for compaction due to additonal white space but failed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +348,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -410,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -493,6 +550,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +578,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -800,7 +866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -808,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D25CA4-DB62-4CFC-AE65-12A371E961DC}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,10 +904,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -861,10 +927,10 @@
         <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -885,13 +951,13 @@
         <v>9</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
       <c r="B4" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -903,10 +969,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -924,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -945,10 +1011,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -977,10 +1043,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -998,10 +1064,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1019,10 +1085,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1040,16 +1106,16 @@
         <v>10</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="12" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C12" s="13">
         <v>2</v>
@@ -1061,19 +1127,19 @@
         <v>13</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C13" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>16</v>
@@ -1082,16 +1148,16 @@
         <v>13</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="23"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="12" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C14" s="13">
         <v>1</v>
@@ -1100,226 +1166,395 @@
         <v>16</v>
       </c>
       <c r="E14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="21">
+        <v>2</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="19"/>
+      <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="23"/>
+      <c r="B17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F17" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="27">
-        <v>2</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="25"/>
-      <c r="B18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="27">
-        <v>1</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="27">
+        <v>2</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="25"/>
+      <c r="B21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="27">
+        <v>2</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="25"/>
+      <c r="B23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="27">
+        <v>1</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="25"/>
+      <c r="B25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="27">
+        <v>1</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="25"/>
+      <c r="B27" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="34">
+        <v>1</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="27">
+        <v>1</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="25"/>
+      <c r="B29" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="34">
+        <v>2</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="14" t="s">
+      <c r="C30" s="27">
+        <v>1</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="14" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="29"/>
+      <c r="B31" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="34">
+        <v>2</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="27">
-        <v>2</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="25"/>
-      <c r="B22" s="12" t="s">
+      <c r="G31" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="13">
-        <v>1</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="29"/>
-      <c r="B23" s="26" t="s">
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="27">
-        <v>2</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="31" t="s">
+      <c r="B34" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B35" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/references/alerts.xlsx
+++ b/references/alerts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\AVDAlerts\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF181BE-B566-4499-9088-FF79CF44D409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A7690D-9223-43B5-9381-84E2AE05C6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1747E9F3-8C51-4656-9796-47111650C799}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>Alert Name</t>
   </si>
@@ -306,6 +306,33 @@
   </si>
   <si>
     <t>User Profile Disk marked for compaction due to additonal white space but failed.</t>
+  </si>
+  <si>
+    <t>Service Health</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>AVD-ServiceHealth-Health Advisory</t>
+  </si>
+  <si>
+    <t>AVD-ServiceHealth-Planned Maintenance</t>
+  </si>
+  <si>
+    <t>AVD-ServiceHealth-Security</t>
+  </si>
+  <si>
+    <t>AVD-ServiceHealth-Service Issue</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Service Health ***</t>
+  </si>
+  <si>
+    <t>Alerts are preset and cannot be changed from severity 4 "Verbose" / Only available in Azure Commercial</t>
   </si>
 </sst>
 </file>
@@ -356,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +417,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,20 +584,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +637,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -866,7 +925,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -874,10 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D25CA4-DB62-4CFC-AE65-12A371E961DC}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1419,22 +1479,22 @@
     </row>
     <row r="27" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="13">
         <v>1</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="14" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1461,22 +1521,22 @@
     </row>
     <row r="29" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="13">
         <v>2</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1503,55 +1563,143 @@
     </row>
     <row r="31" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="29"/>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="13">
         <v>2</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="6">
+        <v>4</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="34"/>
+      <c r="B34" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="32">
+        <v>4</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="34"/>
+      <c r="B35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="13">
+        <v>4</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="37"/>
+      <c r="B36" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="32">
+        <v>4</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
+      <c r="B38" s="39"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B39" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B40" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
